--- a/teaching/traditional_assets/database/data/chile/chile_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03725000000000001</v>
+        <v>0.0288</v>
       </c>
       <c r="E2">
-        <v>-0.0001499999999999991</v>
+        <v>0.007890000000000001</v>
       </c>
       <c r="G2">
-        <v>0.119964813970157</v>
+        <v>0.3754045307443366</v>
       </c>
       <c r="H2">
-        <v>0.1140288004170196</v>
+        <v>0.3754045307443366</v>
       </c>
       <c r="I2">
-        <v>0.1102502802309066</v>
+        <v>0.343042071197411</v>
       </c>
       <c r="J2">
-        <v>0.08368644472056784</v>
+        <v>0.2623970930562652</v>
       </c>
       <c r="K2">
-        <v>132.6</v>
+        <v>8.73</v>
       </c>
       <c r="L2">
-        <v>0.08640125105883885</v>
+        <v>0.2825242718446602</v>
       </c>
       <c r="M2">
-        <v>48.47</v>
+        <v>7.62</v>
       </c>
       <c r="N2">
-        <v>0.03065975077487507</v>
+        <v>0.05090180360721443</v>
       </c>
       <c r="O2">
-        <v>0.3655354449472097</v>
+        <v>0.872852233676976</v>
       </c>
       <c r="P2">
-        <v>48.47</v>
+        <v>7.62</v>
       </c>
       <c r="Q2">
-        <v>0.03065975077487507</v>
+        <v>0.05090180360721443</v>
       </c>
       <c r="R2">
-        <v>0.3655354449472097</v>
+        <v>0.872852233676976</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>605.76</v>
+        <v>5.47</v>
       </c>
       <c r="V2">
-        <v>0.3831741413119109</v>
+        <v>0.03653974615898464</v>
       </c>
       <c r="W2">
-        <v>0.142436806495851</v>
+        <v>0.1746</v>
       </c>
       <c r="X2">
-        <v>0.03594631895532181</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y2">
-        <v>0.1064904875405292</v>
+        <v>0.1564302196896496</v>
       </c>
       <c r="Z2">
-        <v>0.394980377737717</v>
+        <v>0.6668105308588691</v>
       </c>
       <c r="AA2">
-        <v>0.0952647202004553</v>
+        <v>0.1749691449166723</v>
       </c>
       <c r="AB2">
-        <v>0.03173403205355277</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC2">
-        <v>0.06353068814690253</v>
+        <v>0.1567993646063219</v>
       </c>
       <c r="AD2">
-        <v>3515.4</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01947464813856304</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3515.419474648138</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2909.659474648139</v>
+        <v>-5.47</v>
       </c>
       <c r="AH2">
-        <v>0.6897957422284345</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.7123848665984807</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.647950325805701</v>
+        <v>-0.03792553560285655</v>
       </c>
       <c r="AK2">
-        <v>0.6721383029081458</v>
+        <v>-0.1317120154105466</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.057</v>
+        <v>-0.023</v>
       </c>
       <c r="AN2">
-        <v>19.82685203462959</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>16.41047615492027</v>
+        <v>-0.5656670113753878</v>
       </c>
       <c r="AQ2">
-        <v>-2968.421052631579</v>
+        <v>-460.8695652173913</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0222</v>
+        <v>0.0288</v>
       </c>
       <c r="E3">
-        <v>0.0175</v>
+        <v>0.007890000000000001</v>
       </c>
       <c r="G3">
-        <v>0.4587458745874587</v>
+        <v>0.3754045307443366</v>
       </c>
       <c r="H3">
-        <v>0.4587458745874587</v>
+        <v>0.3754045307443366</v>
       </c>
       <c r="I3">
-        <v>0.3399339933993399</v>
+        <v>0.343042071197411</v>
       </c>
       <c r="J3">
-        <v>0.2550727734643968</v>
+        <v>0.2623970930562652</v>
       </c>
       <c r="K3">
-        <v>10.4</v>
+        <v>8.73</v>
       </c>
       <c r="L3">
-        <v>0.3432343234323432</v>
+        <v>0.2825242718446602</v>
       </c>
       <c r="M3">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="N3">
-        <v>0.04893341952165482</v>
+        <v>0.05090180360721443</v>
       </c>
       <c r="O3">
-        <v>0.7278846153846154</v>
+        <v>0.872852233676976</v>
       </c>
       <c r="P3">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="Q3">
-        <v>0.04893341952165482</v>
+        <v>0.05090180360721443</v>
       </c>
       <c r="R3">
-        <v>0.7278846153846154</v>
+        <v>0.872852233676976</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.66</v>
+        <v>5.47</v>
       </c>
       <c r="V3">
-        <v>0.02365869424692954</v>
+        <v>0.03653974615898464</v>
       </c>
       <c r="W3">
-        <v>0.1977186311787072</v>
+        <v>0.1746</v>
       </c>
       <c r="X3">
-        <v>0.02801532215363055</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y3">
-        <v>0.1697033090250767</v>
+        <v>0.1564302196896496</v>
       </c>
       <c r="Z3">
-        <v>0.6223043746149107</v>
+        <v>0.6668105308588691</v>
       </c>
       <c r="AA3">
-        <v>0.1587329027720522</v>
+        <v>0.1749691449166723</v>
       </c>
       <c r="AB3">
-        <v>0.02801532215363055</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC3">
-        <v>0.1307175806184217</v>
+        <v>0.1567993646063219</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-3.66</v>
+        <v>-5.47</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,153 +815,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.02423199152542373</v>
+        <v>-0.03792553560285655</v>
       </c>
       <c r="AK3">
-        <v>-0.07830551989730425</v>
+        <v>-0.1317120154105466</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.057</v>
+        <v>-0.023</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.3075630252100841</v>
+        <v>-0.5656670113753878</v>
       </c>
       <c r="AQ3">
-        <v>-180.7017543859649</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BICECORP S.A. (SNSE:BICECORP)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.05230000000000001</v>
-      </c>
-      <c r="E4">
-        <v>-0.0178</v>
-      </c>
-      <c r="G4">
-        <v>0.1131414517415581</v>
-      </c>
-      <c r="H4">
-        <v>0.1070858814145174</v>
-      </c>
-      <c r="I4">
-        <v>0.1056242389460066</v>
-      </c>
-      <c r="J4">
-        <v>0.0810938412661434</v>
-      </c>
-      <c r="K4">
-        <v>122.2</v>
-      </c>
-      <c r="L4">
-        <v>0.08122839670300452</v>
-      </c>
-      <c r="M4">
-        <v>40.9</v>
-      </c>
-      <c r="N4">
-        <v>0.02867760482400785</v>
-      </c>
-      <c r="O4">
-        <v>0.3346972176759411</v>
-      </c>
-      <c r="P4">
-        <v>40.9</v>
-      </c>
-      <c r="Q4">
-        <v>0.02867760482400785</v>
-      </c>
-      <c r="R4">
-        <v>0.3346972176759411</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>602.1</v>
-      </c>
-      <c r="V4">
-        <v>0.4221708035338662</v>
-      </c>
-      <c r="W4">
-        <v>0.0871549818129948</v>
-      </c>
-      <c r="X4">
-        <v>0.04387731575701306</v>
-      </c>
-      <c r="Y4">
-        <v>0.04327766605598175</v>
-      </c>
-      <c r="Z4">
-        <v>0.3920955911374912</v>
-      </c>
-      <c r="AA4">
-        <v>0.03179653762885837</v>
-      </c>
-      <c r="AB4">
-        <v>0.03545274195347498</v>
-      </c>
-      <c r="AC4">
-        <v>-0.003656204324616601</v>
-      </c>
-      <c r="AD4">
-        <v>3515.4</v>
-      </c>
-      <c r="AE4">
-        <v>0.01947464813856304</v>
-      </c>
-      <c r="AF4">
-        <v>3515.419474648138</v>
-      </c>
-      <c r="AG4">
-        <v>2913.319474648139</v>
-      </c>
-      <c r="AH4">
-        <v>0.7113901611978023</v>
-      </c>
-      <c r="AI4">
-        <v>0.7197357775007921</v>
-      </c>
-      <c r="AJ4">
-        <v>0.6713460998776505</v>
-      </c>
-      <c r="AK4">
-        <v>0.6803293226551683</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>21.2532873855083</v>
-      </c>
-      <c r="AP4">
-        <v>17.61324914390822</v>
+        <v>-460.8695652173913</v>
       </c>
     </row>
   </sheetData>
